--- a/minimal-example/ig/StructureDefinition-ActorXDS.xlsx
+++ b/minimal-example/ig/StructureDefinition-ActorXDS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T06:58:36+00:00</t>
+    <t>2025-05-06T07:03:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -254,7 +254,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR}
+    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice1|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice3}
 </t>
   </si>
   <si>
@@ -582,7 +582,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="189.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="189.0703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
